--- a/ESG-Frameworks/Outputs/testing copy.xlsx
+++ b/ESG-Frameworks/Outputs/testing copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesisco/Documents/GitHub/ESG-Framework-Mapping/ESG-Frameworks/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32DF128-24BB-DD47-8815-20FE2278E8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D13083-2EE9-A747-927A-23E8B1C0F223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG's" sheetId="1" r:id="rId1"/>
@@ -3988,14 +3988,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4052,33 +4049,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4086,38 +4064,11 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4134,13 +4085,7 @@
     <xf numFmtId="0" fontId="15" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4170,9 +4115,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4180,9 +4122,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4206,53 +4145,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4262,20 +4187,120 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4593,2819 +4618,2881 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.5" style="75" customWidth="1"/>
-    <col min="2" max="2" width="78.5" style="75" customWidth="1"/>
+    <col min="1" max="1" width="65.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="78.5" style="52" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="80" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84"/>
-      <c r="B12" s="74" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
     </row>
     <row r="14" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
     </row>
     <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81"/>
-      <c r="B15" s="74" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
     </row>
     <row r="19" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="81"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="81"/>
-      <c r="B21" s="74" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
     </row>
     <row r="22" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
     </row>
     <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="81"/>
-      <c r="B23" s="74" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
     </row>
     <row r="24" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
     </row>
     <row r="25" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
     </row>
     <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="81"/>
-      <c r="B26" s="74" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
     </row>
     <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="74" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="74" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
     </row>
     <row r="34" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="74" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
     </row>
     <row r="35" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
     </row>
     <row r="36" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
-      <c r="B36" s="74" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
     </row>
     <row r="37" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
     </row>
     <row r="38" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="74" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
     </row>
     <row r="39" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="74" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
     </row>
     <row r="40" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="74" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
     </row>
     <row r="41" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
-      <c r="B41" s="74" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
     </row>
     <row r="42" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
     </row>
     <row r="43" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="74" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
     </row>
     <row r="44" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
     </row>
     <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="74" t="s">
+      <c r="A45" s="55"/>
+      <c r="B45" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
     </row>
     <row r="46" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
     </row>
     <row r="47" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
     </row>
     <row r="48" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="74" t="s">
+      <c r="A48" s="55"/>
+      <c r="B48" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
     </row>
     <row r="49" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
     </row>
     <row r="50" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
     </row>
     <row r="51" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
     </row>
     <row r="52" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="74" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
     </row>
     <row r="53" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
-      <c r="B53" s="74" t="s">
+      <c r="A53" s="55"/>
+      <c r="B53" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
     </row>
     <row r="54" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
     </row>
     <row r="55" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
     </row>
     <row r="56" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="74" t="s">
+      <c r="A56" s="55"/>
+      <c r="B56" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
     </row>
     <row r="57" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
     </row>
     <row r="58" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
     </row>
     <row r="60" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="74" t="s">
+      <c r="B60" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
     </row>
     <row r="61" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
     </row>
     <row r="62" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="81"/>
-      <c r="B62" s="74" t="s">
+      <c r="A62" s="55"/>
+      <c r="B62" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
     </row>
     <row r="63" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
     </row>
     <row r="64" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="74" t="s">
+      <c r="B64" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
     </row>
     <row r="65" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
     </row>
     <row r="66" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
     </row>
     <row r="67" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
     </row>
     <row r="68" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
     </row>
     <row r="69" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="74" t="s">
+      <c r="B69" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
     </row>
     <row r="70" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="74" t="s">
+      <c r="B70" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="82" t="s">
+      <c r="A71" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="83"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
     </row>
     <row r="72" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
     </row>
     <row r="73" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="80" t="s">
+      <c r="A73" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
     </row>
     <row r="74" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="81"/>
-      <c r="B74" s="74" t="s">
+      <c r="A74" s="55"/>
+      <c r="B74" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
     </row>
     <row r="75" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="80" t="s">
+      <c r="A75" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="81"/>
+      <c r="E75" s="81"/>
     </row>
     <row r="76" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="81"/>
-      <c r="B76" s="74" t="s">
+      <c r="A76" s="55"/>
+      <c r="B76" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
     </row>
     <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="80" t="s">
+      <c r="A78" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="74" t="s">
+      <c r="B78" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
     </row>
     <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="81"/>
-      <c r="B79" s="74" t="s">
+      <c r="A79" s="55"/>
+      <c r="B79" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
     </row>
     <row r="80" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="80" t="s">
+      <c r="A80" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="74" t="s">
+      <c r="B80" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
     </row>
     <row r="81" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="81"/>
-      <c r="B81" s="74" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
     </row>
     <row r="82" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="74" t="s">
+      <c r="B82" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="81"/>
-      <c r="B83" s="74" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
     </row>
     <row r="84" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="72" t="s">
+      <c r="A84" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B84" s="74" t="s">
+      <c r="B84" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
     </row>
     <row r="85" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
     </row>
     <row r="87" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
     </row>
     <row r="88" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
     </row>
     <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="80" t="s">
+      <c r="A89" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
     </row>
     <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="81"/>
-      <c r="B90" s="74" t="s">
+      <c r="A90" s="55"/>
+      <c r="B90" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
     </row>
     <row r="91" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B91" s="74" t="s">
+      <c r="B91" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
     </row>
     <row r="92" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="81"/>
-      <c r="B92" s="74" t="s">
+      <c r="A92" s="55"/>
+      <c r="B92" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
     </row>
     <row r="93" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="80" t="s">
+      <c r="A93" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
     </row>
     <row r="94" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="81"/>
-      <c r="B94" s="74" t="s">
+      <c r="A94" s="55"/>
+      <c r="B94" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="81"/>
     </row>
     <row r="95" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="72" t="s">
+      <c r="A95" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
     </row>
     <row r="96" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="72" t="s">
+      <c r="A96" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B96" s="74" t="s">
+      <c r="B96" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
     </row>
     <row r="97" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="72" t="s">
+      <c r="A97" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
     </row>
     <row r="99" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="80" t="s">
+      <c r="A99" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="74" t="s">
+      <c r="B99" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
     </row>
     <row r="100" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="81"/>
-      <c r="B100" s="74" t="s">
+      <c r="A100" s="55"/>
+      <c r="B100" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
     </row>
     <row r="101" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B101" s="74" t="s">
+      <c r="B101" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
     </row>
     <row r="102" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="72" t="s">
+      <c r="A102" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="74" t="s">
+      <c r="B102" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
     </row>
     <row r="103" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="72" t="s">
+      <c r="A103" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
     </row>
     <row r="104" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="72" t="s">
+      <c r="A104" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="74" t="s">
+      <c r="B104" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="82" t="s">
+      <c r="A105" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="B105" s="83"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="72" t="s">
+      <c r="A106" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="74" t="s">
+      <c r="B106" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
     </row>
     <row r="107" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="72" t="s">
+      <c r="A107" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="C107" s="81"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
     </row>
     <row r="108" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="72" t="s">
+      <c r="A108" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="74" t="s">
+      <c r="B108" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
     </row>
     <row r="109" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="80" t="s">
+      <c r="A109" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="81"/>
+      <c r="E109" s="81"/>
     </row>
     <row r="110" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="81"/>
-      <c r="B110" s="74" t="s">
+      <c r="A110" s="55"/>
+      <c r="B110" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="C110" s="81"/>
+      <c r="D110" s="81"/>
+      <c r="E110" s="81"/>
     </row>
     <row r="111" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="80" t="s">
+      <c r="A111" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B111" s="74" t="s">
+      <c r="B111" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="C111" s="81"/>
+      <c r="D111" s="81"/>
+      <c r="E111" s="81"/>
     </row>
     <row r="112" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="81"/>
-      <c r="B112" s="74" t="s">
+      <c r="A112" s="55"/>
+      <c r="B112" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="81"/>
+      <c r="E112" s="81"/>
     </row>
     <row r="113" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="72" t="s">
+      <c r="A113" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="C113" s="81"/>
+      <c r="D113" s="81"/>
+      <c r="E113" s="81"/>
     </row>
     <row r="114" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="72" t="s">
+      <c r="A114" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="B114" s="74" t="s">
+      <c r="B114" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="C114" s="81"/>
+      <c r="D114" s="81"/>
+      <c r="E114" s="81"/>
     </row>
     <row r="115" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="80" t="s">
+      <c r="A115" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B115" s="74" t="s">
+      <c r="B115" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="C115" s="81"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
     </row>
     <row r="116" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="81"/>
-      <c r="B116" s="74" t="s">
+      <c r="A116" s="55"/>
+      <c r="B116" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="C116" s="81"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
     </row>
     <row r="117" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="80" t="s">
+      <c r="A117" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
     </row>
     <row r="118" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="81"/>
-      <c r="B118" s="74" t="s">
+      <c r="A118" s="55"/>
+      <c r="B118" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="C118" s="81"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
     </row>
     <row r="119" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="80" t="s">
+      <c r="A119" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="B119" s="74" t="s">
+      <c r="B119" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="C119" s="81"/>
+      <c r="D119" s="81"/>
+      <c r="E119" s="81"/>
     </row>
     <row r="120" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="81"/>
-      <c r="B120" s="74" t="s">
+      <c r="A120" s="55"/>
+      <c r="B120" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="C120" s="81"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="81"/>
     </row>
     <row r="121" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="72" t="s">
+      <c r="A121" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B121" s="74" t="s">
+      <c r="B121" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="C121" s="81"/>
+      <c r="D121" s="81"/>
+      <c r="E121" s="81"/>
     </row>
     <row r="122" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="72" t="s">
+      <c r="A122" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B122" s="74" t="s">
+      <c r="B122" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
+      <c r="C122" s="81"/>
+      <c r="D122" s="81"/>
+      <c r="E122" s="81"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="82" t="s">
+      <c r="A123" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="B123" s="83"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="81"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="81"/>
     </row>
     <row r="124" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="80" t="s">
+      <c r="A124" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="B124" s="74" t="s">
+      <c r="B124" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
+      <c r="C124" s="81"/>
+      <c r="D124" s="81"/>
+      <c r="E124" s="81"/>
     </row>
     <row r="125" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="81"/>
-      <c r="B125" s="74" t="s">
+      <c r="A125" s="55"/>
+      <c r="B125" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="C125" s="81"/>
+      <c r="D125" s="81"/>
+      <c r="E125" s="81"/>
     </row>
     <row r="126" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="80" t="s">
+      <c r="A126" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B126" s="74" t="s">
+      <c r="B126" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="C126" s="81"/>
+      <c r="D126" s="81"/>
+      <c r="E126" s="81"/>
     </row>
     <row r="127" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="81"/>
-      <c r="B127" s="74" t="s">
+      <c r="A127" s="55"/>
+      <c r="B127" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="C127" s="81"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="81"/>
     </row>
     <row r="128" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="80" t="s">
+      <c r="A128" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="B128" s="74" t="s">
+      <c r="B128" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
     </row>
     <row r="129" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="81"/>
-      <c r="B129" s="74" t="s">
+      <c r="A129" s="55"/>
+      <c r="B129" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
+      <c r="C129" s="81"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="81"/>
     </row>
     <row r="130" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="72" t="s">
+      <c r="A130" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="74" t="s">
+      <c r="B130" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
+      <c r="C130" s="81"/>
+      <c r="D130" s="81"/>
+      <c r="E130" s="81"/>
     </row>
     <row r="131" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="80" t="s">
+      <c r="A131" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B131" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="81"/>
+      <c r="E131" s="81"/>
     </row>
     <row r="132" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="81"/>
-      <c r="B132" s="74" t="s">
+      <c r="A132" s="55"/>
+      <c r="B132" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="C132" s="81"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="81"/>
     </row>
     <row r="133" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="72" t="s">
+      <c r="A133" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="74" t="s">
+      <c r="B133" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="C133" s="81"/>
+      <c r="D133" s="81"/>
+      <c r="E133" s="81"/>
     </row>
     <row r="134" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="72" t="s">
+      <c r="A134" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B134" s="74" t="s">
+      <c r="B134" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="C134" s="81"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
     </row>
     <row r="135" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="72" t="s">
+      <c r="A135" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="82" t="s">
+      <c r="A136" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="B136" s="83"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+      <c r="B136" s="57"/>
+      <c r="C136" s="81"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="81"/>
     </row>
     <row r="137" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="72" t="s">
+      <c r="A137" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B137" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+      <c r="C137" s="81"/>
+      <c r="D137" s="81"/>
+      <c r="E137" s="81"/>
     </row>
     <row r="138" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="72" t="s">
+      <c r="A138" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="B138" s="74" t="s">
+      <c r="B138" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
     </row>
     <row r="139" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="72" t="s">
+      <c r="A139" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B139" s="74" t="s">
+      <c r="B139" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="C139" s="81"/>
+      <c r="D139" s="81"/>
+      <c r="E139" s="81"/>
     </row>
     <row r="140" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="72" t="s">
+      <c r="A140" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B140" s="74" t="s">
+      <c r="B140" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
+      <c r="C140" s="81"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="81"/>
     </row>
     <row r="141" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="72" t="s">
+      <c r="A141" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B141" s="74" t="s">
+      <c r="B141" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="81"/>
+      <c r="E141" s="81"/>
     </row>
     <row r="142" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="72" t="s">
+      <c r="A142" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B142" s="74" t="s">
+      <c r="B142" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="C142" s="81"/>
+      <c r="D142" s="81"/>
+      <c r="E142" s="81"/>
     </row>
     <row r="143" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="80" t="s">
+      <c r="A143" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B143" s="74" t="s">
+      <c r="B143" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
     </row>
     <row r="144" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="81"/>
-      <c r="B144" s="74" t="s">
+      <c r="A144" s="55"/>
+      <c r="B144" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="81"/>
+      <c r="E144" s="81"/>
     </row>
     <row r="145" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="72" t="s">
+      <c r="A145" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B145" s="74" t="s">
+      <c r="B145" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
     </row>
     <row r="146" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="72" t="s">
+      <c r="A146" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="B146" s="74" t="s">
+      <c r="B146" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="C146" s="81"/>
+      <c r="D146" s="81"/>
+      <c r="E146" s="81"/>
     </row>
     <row r="147" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="72" t="s">
+      <c r="A147" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B147" s="74" t="s">
+      <c r="B147" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="81"/>
+      <c r="E147" s="81"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="82" t="s">
+      <c r="A148" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="B148" s="83"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="81"/>
+      <c r="E148" s="81"/>
     </row>
     <row r="149" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="72" t="s">
+      <c r="A149" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="B149" s="74" t="s">
+      <c r="B149" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="C149" s="81"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="81"/>
     </row>
     <row r="150" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="72" t="s">
+      <c r="A150" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="B150" s="74" t="s">
+      <c r="B150" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
+      <c r="C150" s="81"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
     </row>
     <row r="151" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="80" t="s">
+      <c r="A151" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="B151" s="74" t="s">
+      <c r="B151" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+      <c r="C151" s="81"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
     </row>
     <row r="152" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="81"/>
-      <c r="B152" s="74" t="s">
+      <c r="A152" s="55"/>
+      <c r="B152" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="C152" s="81"/>
+      <c r="D152" s="81"/>
+      <c r="E152" s="81"/>
     </row>
     <row r="153" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="72" t="s">
+      <c r="A153" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="B153" s="74" t="s">
+      <c r="B153" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="81"/>
     </row>
     <row r="154" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="80" t="s">
+      <c r="A154" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="B154" s="74" t="s">
+      <c r="B154" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="81"/>
+      <c r="E154" s="81"/>
     </row>
     <row r="155" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="81"/>
-      <c r="B155" s="74" t="s">
+      <c r="A155" s="55"/>
+      <c r="B155" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="81"/>
     </row>
     <row r="156" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="80" t="s">
+      <c r="A156" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="B156" s="74" t="s">
+      <c r="B156" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="81"/>
+      <c r="E156" s="81"/>
     </row>
     <row r="157" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="81"/>
-      <c r="B157" s="74" t="s">
+      <c r="A157" s="55"/>
+      <c r="B157" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
+      <c r="C157" s="81"/>
+      <c r="D157" s="81"/>
+      <c r="E157" s="81"/>
     </row>
     <row r="158" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="80" t="s">
+      <c r="A158" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B158" s="74" t="s">
+      <c r="B158" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
+      <c r="C158" s="81"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="81"/>
     </row>
     <row r="159" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="81"/>
-      <c r="B159" s="74" t="s">
+      <c r="A159" s="55"/>
+      <c r="B159" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="C159" s="81"/>
+      <c r="D159" s="81"/>
+      <c r="E159" s="81"/>
     </row>
     <row r="160" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="72" t="s">
+      <c r="A160" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="B160" s="74" t="s">
+      <c r="B160" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
+      <c r="C160" s="81"/>
+      <c r="D160" s="81"/>
+      <c r="E160" s="81"/>
     </row>
     <row r="161" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="80" t="s">
+      <c r="A161" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="B161" s="74" t="s">
+      <c r="B161" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
+      <c r="C161" s="81"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
     </row>
     <row r="162" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="81"/>
-      <c r="B162" s="74" t="s">
+      <c r="A162" s="55"/>
+      <c r="B162" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
     </row>
     <row r="163" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="72" t="s">
+      <c r="A163" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="B163" s="74" t="s">
+      <c r="B163" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="82" t="s">
+      <c r="A164" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="B164" s="83"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
+      <c r="B164" s="57"/>
+      <c r="C164" s="81"/>
+      <c r="D164" s="81"/>
+      <c r="E164" s="81"/>
     </row>
     <row r="165" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="72" t="s">
+      <c r="A165" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="B165" s="74" t="s">
+      <c r="B165" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+      <c r="C165" s="81"/>
+      <c r="D165" s="81"/>
+      <c r="E165" s="81"/>
     </row>
     <row r="166" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="80" t="s">
+      <c r="A166" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="B166" s="74" t="s">
+      <c r="B166" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
+      <c r="C166" s="81"/>
+      <c r="D166" s="81"/>
+      <c r="E166" s="81"/>
     </row>
     <row r="167" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="81"/>
-      <c r="B167" s="74" t="s">
+      <c r="A167" s="55"/>
+      <c r="B167" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
+      <c r="C167" s="81"/>
+      <c r="D167" s="81"/>
+      <c r="E167" s="81"/>
     </row>
     <row r="168" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="72" t="s">
+      <c r="A168" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B168" s="74" t="s">
+      <c r="B168" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
+      <c r="C168" s="81"/>
+      <c r="D168" s="81"/>
+      <c r="E168" s="81"/>
     </row>
     <row r="169" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="80" t="s">
+      <c r="A169" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="81"/>
+      <c r="E169" s="81"/>
     </row>
     <row r="170" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="81"/>
-      <c r="B170" s="74" t="s">
+      <c r="A170" s="55"/>
+      <c r="B170" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
+      <c r="C170" s="81"/>
+      <c r="D170" s="81"/>
+      <c r="E170" s="81"/>
     </row>
     <row r="171" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="72" t="s">
+      <c r="A171" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="B171" s="74" t="s">
+      <c r="B171" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
+      <c r="C171" s="81"/>
+      <c r="D171" s="81"/>
+      <c r="E171" s="81"/>
     </row>
     <row r="172" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="72" t="s">
+      <c r="A172" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="B172" s="74" t="s">
+      <c r="B172" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
+      <c r="C172" s="81"/>
+      <c r="D172" s="81"/>
+      <c r="E172" s="81"/>
     </row>
     <row r="173" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="72" t="s">
+      <c r="A173" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="B173" s="74" t="s">
+      <c r="B173" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
+      <c r="C173" s="81"/>
+      <c r="D173" s="81"/>
+      <c r="E173" s="81"/>
     </row>
     <row r="174" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="72" t="s">
+      <c r="A174" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="B174" s="74" t="s">
+      <c r="B174" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
+      <c r="C174" s="81"/>
+      <c r="D174" s="81"/>
+      <c r="E174" s="81"/>
     </row>
     <row r="175" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="72" t="s">
+      <c r="A175" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="B175" s="74" t="s">
+      <c r="B175" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
+      <c r="C175" s="81"/>
+      <c r="D175" s="81"/>
+      <c r="E175" s="81"/>
     </row>
     <row r="176" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="72" t="s">
+      <c r="A176" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="B176" s="74" t="s">
+      <c r="B176" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
+      <c r="C176" s="81"/>
+      <c r="D176" s="81"/>
+      <c r="E176" s="81"/>
     </row>
     <row r="177" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="72" t="s">
+      <c r="A177" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+      <c r="C177" s="81"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="81"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="82" t="s">
+      <c r="A178" s="60" t="s">
         <v>295</v>
       </c>
-      <c r="B178" s="83"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="B178" s="57"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="81"/>
+      <c r="E178" s="81"/>
     </row>
     <row r="179" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="80" t="s">
+      <c r="A179" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="B179" s="74" t="s">
+      <c r="B179" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
+      <c r="C179" s="81"/>
+      <c r="D179" s="81"/>
+      <c r="E179" s="81"/>
     </row>
     <row r="180" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="81"/>
-      <c r="B180" s="74" t="s">
+      <c r="A180" s="55"/>
+      <c r="B180" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+      <c r="C180" s="81"/>
+      <c r="D180" s="81"/>
+      <c r="E180" s="81"/>
     </row>
     <row r="181" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="72" t="s">
+      <c r="A181" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="B181" s="74" t="s">
+      <c r="B181" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
+      <c r="C181" s="81"/>
+      <c r="D181" s="81"/>
+      <c r="E181" s="81"/>
     </row>
     <row r="182" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="80" t="s">
+      <c r="A182" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="B182" s="74" t="s">
+      <c r="B182" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
+      <c r="C182" s="81"/>
+      <c r="D182" s="81"/>
+      <c r="E182" s="81"/>
     </row>
     <row r="183" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="81"/>
-      <c r="B183" s="74" t="s">
+      <c r="A183" s="55"/>
+      <c r="B183" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
+      <c r="C183" s="81"/>
+      <c r="D183" s="81"/>
+      <c r="E183" s="81"/>
     </row>
     <row r="184" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="72" t="s">
+      <c r="A184" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="B184" s="74" t="s">
+      <c r="B184" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
+      <c r="C184" s="81"/>
+      <c r="D184" s="81"/>
+      <c r="E184" s="81"/>
     </row>
     <row r="185" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="72" t="s">
+      <c r="A185" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="B185" s="74" t="s">
+      <c r="B185" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
+      <c r="C185" s="81"/>
+      <c r="D185" s="81"/>
+      <c r="E185" s="81"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="82" t="s">
+      <c r="A186" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="B186" s="83"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
+      <c r="B186" s="57"/>
+      <c r="C186" s="81"/>
+      <c r="D186" s="81"/>
+      <c r="E186" s="81"/>
     </row>
     <row r="187" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="72" t="s">
+      <c r="A187" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="B187" s="74" t="s">
+      <c r="B187" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
+      <c r="C187" s="81"/>
+      <c r="D187" s="81"/>
+      <c r="E187" s="81"/>
     </row>
     <row r="188" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="72" t="s">
+      <c r="A188" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="B188" s="74" t="s">
+      <c r="B188" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
+      <c r="C188" s="81"/>
+      <c r="D188" s="81"/>
+      <c r="E188" s="81"/>
     </row>
     <row r="189" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="72" t="s">
+      <c r="A189" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="B189" s="74" t="s">
+      <c r="B189" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
+      <c r="C189" s="81"/>
+      <c r="D189" s="81"/>
+      <c r="E189" s="81"/>
     </row>
     <row r="190" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="72" t="s">
+      <c r="A190" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="B190" s="74" t="s">
+      <c r="B190" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
+      <c r="C190" s="81"/>
+      <c r="D190" s="81"/>
+      <c r="E190" s="81"/>
     </row>
     <row r="191" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="72" t="s">
+      <c r="A191" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="B191" s="74" t="s">
+      <c r="B191" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
+      <c r="C191" s="81"/>
+      <c r="D191" s="81"/>
+      <c r="E191" s="81"/>
     </row>
     <row r="192" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="72" t="s">
+      <c r="A192" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="B192" s="74" t="s">
+      <c r="B192" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
+      <c r="C192" s="81"/>
+      <c r="D192" s="81"/>
+      <c r="E192" s="81"/>
     </row>
     <row r="193" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="72" t="s">
+      <c r="A193" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B193" s="74" t="s">
+      <c r="B193" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="81"/>
+      <c r="E193" s="81"/>
     </row>
     <row r="194" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="72" t="s">
+      <c r="A194" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="B194" s="74" t="s">
+      <c r="B194" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
+      <c r="C194" s="81"/>
+      <c r="D194" s="81"/>
+      <c r="E194" s="81"/>
     </row>
     <row r="195" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="72" t="s">
+      <c r="A195" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="B195" s="74" t="s">
+      <c r="B195" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
+      <c r="C195" s="81"/>
+      <c r="D195" s="81"/>
+      <c r="E195" s="81"/>
     </row>
     <row r="196" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="72" t="s">
+      <c r="A196" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="B196" s="74" t="s">
+      <c r="B196" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
+      <c r="C196" s="81"/>
+      <c r="D196" s="81"/>
+      <c r="E196" s="81"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="82" t="s">
+      <c r="A197" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="B197" s="83"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="81"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
     </row>
     <row r="198" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="80" t="s">
+      <c r="A198" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="B198" s="74" t="s">
+      <c r="B198" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
+      <c r="C198" s="81"/>
+      <c r="D198" s="81"/>
+      <c r="E198" s="81"/>
     </row>
     <row r="199" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="81"/>
-      <c r="B199" s="74" t="s">
+      <c r="A199" s="55"/>
+      <c r="B199" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
+      <c r="C199" s="81"/>
+      <c r="D199" s="81"/>
+      <c r="E199" s="81"/>
     </row>
     <row r="200" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="72" t="s">
+      <c r="A200" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="B200" s="74" t="s">
+      <c r="B200" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
+      <c r="C200" s="81"/>
+      <c r="D200" s="81"/>
+      <c r="E200" s="81"/>
     </row>
     <row r="201" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="72" t="s">
+      <c r="A201" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="B201" s="74" t="s">
+      <c r="B201" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
+      <c r="C201" s="81"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="81"/>
     </row>
     <row r="202" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="80" t="s">
+      <c r="A202" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="B202" s="74" t="s">
+      <c r="B202" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
+      <c r="C202" s="81"/>
+      <c r="D202" s="81"/>
+      <c r="E202" s="81"/>
     </row>
     <row r="203" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="81"/>
-      <c r="B203" s="74" t="s">
+      <c r="A203" s="55"/>
+      <c r="B203" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
+      <c r="C203" s="81"/>
+      <c r="D203" s="81"/>
+      <c r="E203" s="81"/>
     </row>
     <row r="204" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="72" t="s">
+      <c r="A204" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="B204" s="74" t="s">
+      <c r="B204" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
+      <c r="C204" s="81"/>
+      <c r="D204" s="81"/>
+      <c r="E204" s="81"/>
     </row>
     <row r="205" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="72" t="s">
+      <c r="A205" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="B205" s="74" t="s">
+      <c r="B205" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
+      <c r="C205" s="81"/>
+      <c r="D205" s="81"/>
+      <c r="E205" s="81"/>
     </row>
     <row r="206" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="72" t="s">
+      <c r="A206" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="B206" s="74" t="s">
+      <c r="B206" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
+      <c r="C206" s="81"/>
+      <c r="D206" s="81"/>
+      <c r="E206" s="81"/>
     </row>
     <row r="207" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="72" t="s">
+      <c r="A207" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="B207" s="74" t="s">
+      <c r="B207" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
+      <c r="C207" s="81"/>
+      <c r="D207" s="81"/>
+      <c r="E207" s="81"/>
     </row>
     <row r="208" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="72" t="s">
+      <c r="A208" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="B208" s="74" t="s">
+      <c r="B208" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
+      <c r="C208" s="81"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
     </row>
     <row r="209" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="72" t="s">
+      <c r="A209" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="B209" s="74" t="s">
+      <c r="B209" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
+      <c r="C209" s="81"/>
+      <c r="D209" s="81"/>
+      <c r="E209" s="81"/>
     </row>
     <row r="210" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="72" t="s">
+      <c r="A210" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="B210" s="74" t="s">
+      <c r="B210" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
+      <c r="C210" s="81"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="81"/>
     </row>
     <row r="211" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="72" t="s">
+      <c r="A211" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="B211" s="74" t="s">
+      <c r="B211" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
+      <c r="C211" s="81"/>
+      <c r="D211" s="81"/>
+      <c r="E211" s="81"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="82" t="s">
+      <c r="A212" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="B212" s="83"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
+      <c r="B212" s="57"/>
+      <c r="C212" s="81"/>
+      <c r="D212" s="81"/>
+      <c r="E212" s="81"/>
     </row>
     <row r="213" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="80" t="s">
+      <c r="A213" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="B213" s="74" t="s">
+      <c r="B213" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
+      <c r="C213" s="81"/>
+      <c r="D213" s="81"/>
+      <c r="E213" s="81"/>
     </row>
     <row r="214" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="84"/>
-      <c r="B214" s="74" t="s">
+      <c r="A214" s="59"/>
+      <c r="B214" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
+      <c r="C214" s="81"/>
+      <c r="D214" s="81"/>
+      <c r="E214" s="81"/>
     </row>
     <row r="215" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="84"/>
-      <c r="B215" s="74" t="s">
+      <c r="A215" s="59"/>
+      <c r="B215" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
+      <c r="C215" s="81"/>
+      <c r="D215" s="81"/>
+      <c r="E215" s="81"/>
     </row>
     <row r="216" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="81"/>
-      <c r="B216" s="74" t="s">
+      <c r="A216" s="55"/>
+      <c r="B216" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
+      <c r="C216" s="81"/>
+      <c r="D216" s="81"/>
+      <c r="E216" s="81"/>
     </row>
     <row r="217" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="80" t="s">
+      <c r="A217" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="B217" s="74" t="s">
+      <c r="B217" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
+      <c r="C217" s="81"/>
+      <c r="D217" s="81"/>
+      <c r="E217" s="81"/>
     </row>
     <row r="218" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="84"/>
-      <c r="B218" s="74" t="s">
+      <c r="A218" s="59"/>
+      <c r="B218" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
+      <c r="C218" s="81"/>
+      <c r="D218" s="81"/>
+      <c r="E218" s="81"/>
     </row>
     <row r="219" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="81"/>
-      <c r="B219" s="74" t="s">
+      <c r="A219" s="55"/>
+      <c r="B219" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
+      <c r="C219" s="81"/>
+      <c r="D219" s="81"/>
+      <c r="E219" s="81"/>
     </row>
     <row r="220" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="80" t="s">
+      <c r="A220" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="B220" s="74" t="s">
+      <c r="B220" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
+      <c r="C220" s="81"/>
+      <c r="D220" s="81"/>
+      <c r="E220" s="81"/>
     </row>
     <row r="221" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="81"/>
-      <c r="B221" s="74" t="s">
+      <c r="A221" s="55"/>
+      <c r="B221" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
+      <c r="C221" s="81"/>
+      <c r="D221" s="81"/>
+      <c r="E221" s="81"/>
     </row>
     <row r="222" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="80" t="s">
+      <c r="A222" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="B222" s="74" t="s">
+      <c r="B222" s="51" t="s">
         <v>371</v>
       </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="81"/>
+      <c r="E222" s="81"/>
     </row>
     <row r="223" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="81"/>
-      <c r="B223" s="74" t="s">
+      <c r="A223" s="55"/>
+      <c r="B223" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
+      <c r="C223" s="81"/>
+      <c r="D223" s="81"/>
+      <c r="E223" s="81"/>
     </row>
     <row r="224" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="80" t="s">
+      <c r="A224" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="B224" s="74" t="s">
+      <c r="B224" s="51" t="s">
         <v>374</v>
       </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
+      <c r="C224" s="81"/>
+      <c r="D224" s="81"/>
+      <c r="E224" s="81"/>
     </row>
     <row r="225" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="81"/>
-      <c r="B225" s="74" t="s">
+      <c r="A225" s="55"/>
+      <c r="B225" s="51" t="s">
         <v>375</v>
       </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
+      <c r="C225" s="81"/>
+      <c r="D225" s="81"/>
+      <c r="E225" s="81"/>
     </row>
     <row r="226" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="80" t="s">
+      <c r="A226" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="B226" s="74" t="s">
+      <c r="B226" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
+      <c r="C226" s="81"/>
+      <c r="D226" s="81"/>
+      <c r="E226" s="81"/>
     </row>
     <row r="227" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="81"/>
-      <c r="B227" s="74" t="s">
+      <c r="A227" s="55"/>
+      <c r="B227" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
+      <c r="C227" s="81"/>
+      <c r="D227" s="81"/>
+      <c r="E227" s="81"/>
     </row>
     <row r="228" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="80" t="s">
+      <c r="A228" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="B228" s="74" t="s">
+      <c r="B228" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
+      <c r="C228" s="81"/>
+      <c r="D228" s="81"/>
+      <c r="E228" s="81"/>
     </row>
     <row r="229" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="81"/>
-      <c r="B229" s="74" t="s">
+      <c r="A229" s="55"/>
+      <c r="B229" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
+      <c r="C229" s="81"/>
+      <c r="D229" s="81"/>
+      <c r="E229" s="81"/>
     </row>
     <row r="230" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="72" t="s">
+      <c r="A230" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="B230" s="74" t="s">
+      <c r="B230" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
+      <c r="C230" s="81"/>
+      <c r="D230" s="81"/>
+      <c r="E230" s="81"/>
     </row>
     <row r="231" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="72" t="s">
+      <c r="A231" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="B231" s="74" t="s">
+      <c r="B231" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
+      <c r="C231" s="81"/>
+      <c r="D231" s="81"/>
+      <c r="E231" s="81"/>
     </row>
     <row r="232" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="80" t="s">
+      <c r="A232" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="B232" s="74" t="s">
+      <c r="B232" s="51" t="s">
         <v>387</v>
       </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="4"/>
+      <c r="C232" s="81"/>
+      <c r="D232" s="81"/>
+      <c r="E232" s="81"/>
     </row>
     <row r="233" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="81"/>
-      <c r="B233" s="74" t="s">
+      <c r="A233" s="55"/>
+      <c r="B233" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
+      <c r="C233" s="81"/>
+      <c r="D233" s="81"/>
+      <c r="E233" s="81"/>
     </row>
     <row r="234" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="72" t="s">
+      <c r="A234" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="B234" s="74" t="s">
+      <c r="B234" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4"/>
+      <c r="C234" s="81"/>
+      <c r="D234" s="81"/>
+      <c r="E234" s="81"/>
     </row>
     <row r="235" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="72" t="s">
+      <c r="A235" s="49" t="s">
         <v>391</v>
       </c>
-      <c r="B235" s="74" t="s">
+      <c r="B235" s="51" t="s">
         <v>392</v>
       </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4"/>
+      <c r="C235" s="81"/>
+      <c r="D235" s="81"/>
+      <c r="E235" s="81"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="82" t="s">
+      <c r="A236" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="B236" s="83"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="81"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="81"/>
     </row>
     <row r="237" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="73" t="s">
+      <c r="A237" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="B237" s="6"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="81"/>
+      <c r="D237" s="81"/>
+      <c r="E237" s="81"/>
     </row>
     <row r="238" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="80" t="s">
+      <c r="A238" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="B238" s="74" t="s">
+      <c r="B238" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4"/>
+      <c r="C238" s="81"/>
+      <c r="D238" s="81"/>
+      <c r="E238" s="81"/>
     </row>
     <row r="239" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="81"/>
-      <c r="B239" s="74" t="s">
+      <c r="A239" s="55"/>
+      <c r="B239" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
+      <c r="C239" s="81"/>
+      <c r="D239" s="81"/>
+      <c r="E239" s="81"/>
     </row>
     <row r="240" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="72" t="s">
+      <c r="A240" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="B240" s="74" t="s">
+      <c r="B240" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4"/>
+      <c r="C240" s="81"/>
+      <c r="D240" s="81"/>
+      <c r="E240" s="81"/>
     </row>
     <row r="241" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="80" t="s">
+      <c r="A241" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="B241" s="74" t="s">
+      <c r="B241" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4"/>
+      <c r="C241" s="81"/>
+      <c r="D241" s="81"/>
+      <c r="E241" s="81"/>
     </row>
     <row r="242" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="81"/>
-      <c r="B242" s="74" t="s">
+      <c r="A242" s="55"/>
+      <c r="B242" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4"/>
+      <c r="C242" s="81"/>
+      <c r="D242" s="81"/>
+      <c r="E242" s="81"/>
     </row>
     <row r="243" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="72" t="s">
+      <c r="A243" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="B243" s="74" t="s">
+      <c r="B243" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4"/>
+      <c r="C243" s="81"/>
+      <c r="D243" s="81"/>
+      <c r="E243" s="81"/>
     </row>
     <row r="244" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="72" t="s">
+      <c r="A244" s="49" t="s">
         <v>405</v>
       </c>
-      <c r="B244" s="74" t="s">
+      <c r="B244" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
+      <c r="C244" s="81"/>
+      <c r="D244" s="81"/>
+      <c r="E244" s="81"/>
     </row>
     <row r="245" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="73" t="s">
+      <c r="A245" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="B245" s="74"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
+      <c r="B245" s="51"/>
+      <c r="C245" s="81"/>
+      <c r="D245" s="81"/>
+      <c r="E245" s="81"/>
     </row>
     <row r="246" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="80" t="s">
+      <c r="A246" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="B246" s="74" t="s">
+      <c r="B246" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4"/>
+      <c r="C246" s="81"/>
+      <c r="D246" s="81"/>
+      <c r="E246" s="81"/>
     </row>
     <row r="247" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="81"/>
-      <c r="B247" s="74" t="s">
+      <c r="A247" s="55"/>
+      <c r="B247" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
+      <c r="C247" s="81"/>
+      <c r="D247" s="81"/>
+      <c r="E247" s="81"/>
     </row>
     <row r="248" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="72" t="s">
+      <c r="A248" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="B248" s="74" t="s">
+      <c r="B248" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4"/>
+      <c r="C248" s="81"/>
+      <c r="D248" s="81"/>
+      <c r="E248" s="81"/>
     </row>
     <row r="249" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="72" t="s">
+      <c r="A249" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="B249" s="74" t="s">
+      <c r="B249" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4"/>
+      <c r="C249" s="81"/>
+      <c r="D249" s="81"/>
+      <c r="E249" s="81"/>
     </row>
     <row r="250" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="73" t="s">
+      <c r="A250" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="B250" s="74"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4"/>
+      <c r="B250" s="51"/>
+      <c r="C250" s="81"/>
+      <c r="D250" s="81"/>
+      <c r="E250" s="81"/>
     </row>
     <row r="251" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="72" t="s">
+      <c r="A251" s="49" t="s">
         <v>416</v>
       </c>
-      <c r="B251" s="74" t="s">
+      <c r="B251" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
+      <c r="C251" s="81"/>
+      <c r="D251" s="81"/>
+      <c r="E251" s="81"/>
     </row>
     <row r="252" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="73" t="s">
+      <c r="A252" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="B252" s="74"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4"/>
+      <c r="B252" s="51"/>
+      <c r="C252" s="81"/>
+      <c r="D252" s="81"/>
+      <c r="E252" s="81"/>
     </row>
     <row r="253" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="72" t="s">
+      <c r="A253" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="B253" s="74" t="s">
+      <c r="B253" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
+      <c r="C253" s="81"/>
+      <c r="D253" s="81"/>
+      <c r="E253" s="81"/>
     </row>
     <row r="254" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="72" t="s">
+      <c r="A254" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="B254" s="74" t="s">
+      <c r="B254" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
+      <c r="C254" s="81"/>
+      <c r="D254" s="81"/>
+      <c r="E254" s="81"/>
     </row>
     <row r="255" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="72" t="s">
+      <c r="A255" s="49" t="s">
         <v>423</v>
       </c>
-      <c r="B255" s="74" t="s">
+      <c r="B255" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
+      <c r="C255" s="81"/>
+      <c r="D255" s="81"/>
+      <c r="E255" s="81"/>
     </row>
     <row r="256" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="73" t="s">
+      <c r="A256" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="B256" s="74"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
+      <c r="B256" s="51"/>
+      <c r="C256" s="81"/>
+      <c r="D256" s="81"/>
+      <c r="E256" s="81"/>
     </row>
     <row r="257" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B257" s="74"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
+      <c r="B257" s="51"/>
+      <c r="C257" s="81"/>
+      <c r="D257" s="81"/>
+      <c r="E257" s="81"/>
     </row>
     <row r="258" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="72" t="s">
+      <c r="A258" s="49" t="s">
         <v>427</v>
       </c>
-      <c r="B258" s="74" t="s">
+      <c r="B258" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4"/>
+      <c r="C258" s="81"/>
+      <c r="D258" s="81"/>
+      <c r="E258" s="81"/>
     </row>
     <row r="259" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="72" t="s">
+      <c r="A259" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="B259" s="74" t="s">
+      <c r="B259" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4"/>
+      <c r="C259" s="81"/>
+      <c r="D259" s="81"/>
+      <c r="E259" s="81"/>
     </row>
     <row r="260" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="72" t="s">
+      <c r="A260" s="49" t="s">
         <v>431</v>
       </c>
-      <c r="B260" s="74" t="s">
+      <c r="B260" s="51" t="s">
         <v>432</v>
       </c>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
+      <c r="C260" s="81"/>
+      <c r="D260" s="81"/>
+      <c r="E260" s="81"/>
     </row>
     <row r="261" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B261" s="74"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
+      <c r="B261" s="51"/>
+      <c r="C261" s="81"/>
+      <c r="D261" s="81"/>
+      <c r="E261" s="81"/>
     </row>
     <row r="262" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="72" t="s">
+      <c r="A262" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="B262" s="74" t="s">
+      <c r="B262" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
+      <c r="C262" s="81"/>
+      <c r="D262" s="81"/>
+      <c r="E262" s="81"/>
     </row>
     <row r="263" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="72" t="s">
+      <c r="A263" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="B263" s="74" t="s">
+      <c r="B263" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
+      <c r="C263" s="81"/>
+      <c r="D263" s="81"/>
+      <c r="E263" s="81"/>
     </row>
     <row r="264" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="7" t="s">
+      <c r="A264" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B264" s="74"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
-      <c r="E264" s="4"/>
+      <c r="B264" s="51"/>
+      <c r="C264" s="81"/>
+      <c r="D264" s="81"/>
+      <c r="E264" s="81"/>
     </row>
     <row r="265" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="80" t="s">
+      <c r="A265" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="B265" s="74" t="s">
+      <c r="B265" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
+      <c r="C265" s="81"/>
+      <c r="D265" s="81"/>
+      <c r="E265" s="81"/>
     </row>
     <row r="266" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="81"/>
-      <c r="B266" s="74" t="s">
+      <c r="A266" s="55"/>
+      <c r="B266" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
+      <c r="C266" s="81"/>
+      <c r="D266" s="81"/>
+      <c r="E266" s="81"/>
     </row>
     <row r="267" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="72"/>
-      <c r="B267" s="74" t="s">
+      <c r="A267" s="49"/>
+      <c r="B267" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
+      <c r="C267" s="81"/>
+      <c r="D267" s="81"/>
+      <c r="E267" s="81"/>
     </row>
     <row r="268" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="80" t="s">
+      <c r="A268" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="B268" s="74" t="s">
+      <c r="B268" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
+      <c r="C268" s="81"/>
+      <c r="D268" s="81"/>
+      <c r="E268" s="81"/>
     </row>
     <row r="269" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="81"/>
-      <c r="B269" s="74" t="s">
+      <c r="A269" s="55"/>
+      <c r="B269" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
+      <c r="C269" s="81"/>
+      <c r="D269" s="81"/>
+      <c r="E269" s="81"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="78" t="s">
+      <c r="A271" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="B271" s="79"/>
+      <c r="B271" s="63"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="78" t="s">
+      <c r="A272" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="B272" s="79"/>
+      <c r="B272" s="63"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="78" t="s">
+      <c r="A273" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="B273" s="79"/>
+      <c r="B273" s="63"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="78" t="s">
+      <c r="A274" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="B274" s="79"/>
+      <c r="B274" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A79"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:A19"/>
@@ -7418,73 +7505,12 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7495,7 +7521,7 @@
   <dimension ref="A2:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7503,1976 +7529,1977 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="7" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="7" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="7" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="9" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="9" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="7" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="7" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="7" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="7" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="7" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="7" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="7" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="7" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="7" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="10" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="7" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="7" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="7" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="7" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="7" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="7" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="7" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="7" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="10" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="7" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="7" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="7" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="10" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="10" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="7" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="7" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="7" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="7" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="7" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="7" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="7" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="7" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="7" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="7" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="7" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="7" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="7" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="7" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="7" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="7" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="7" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="10" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="7" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="7" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="7" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="10" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C97" s="7" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="7" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="10" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="10" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="10" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="10" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="7" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="7" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C106" s="7" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="225" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="7" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="10"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="10" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="10" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="10" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="10" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="10" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="10" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="7" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="7" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="300" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="10" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="300" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="10" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="10" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="7" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="7" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="7" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="7" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="10" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="10" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="16" t="s">
+      <c r="A128" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="C128" s="13" t="s">
+      <c r="C128" s="10" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="C129" s="13" t="s">
+      <c r="C129" s="10" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="10" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="10" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="10" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
+      <c r="A133" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="7" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="16" t="s">
+      <c r="A134" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="7" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="16" t="s">
+      <c r="A135" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="10" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="16" t="s">
+      <c r="A136" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="10" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="10" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="16" t="s">
+      <c r="A138" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="10" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="16" t="s">
+      <c r="A139" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="10" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="16" t="s">
+      <c r="A140" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="10" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="14"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="10"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="7"/>
     </row>
     <row r="142" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="10" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="7" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="10" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="7" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="7" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="7" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="7" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="7" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="7" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="17" t="s">
+      <c r="A153" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="10" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="342" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
+      <c r="A154" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B154" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="10" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="B155" s="17" t="s">
+      <c r="B155" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="10" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="10" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="7" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B158" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="10" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="10" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="17" t="s">
+      <c r="A160" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="10" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="17" t="s">
+      <c r="A161" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="10" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="7" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="17" t="s">
+      <c r="A163" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="7" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="17" t="s">
+      <c r="A164" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="7" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="10" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17" t="s">
+      <c r="A166" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="10" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="9" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="10" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="10" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="10" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="17" t="s">
+      <c r="A171" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="7" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="17" t="s">
+      <c r="A172" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="10" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="17" t="s">
+      <c r="A173" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="10" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="17" t="s">
+      <c r="A174" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="10" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="10" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="17" t="s">
+      <c r="A176" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="10" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="17" t="s">
+      <c r="A177" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="7" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="10" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="17" t="s">
+      <c r="A179" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="14" t="s">
         <v>834</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="10" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="10" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="17" t="s">
+      <c r="A181" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="10" t="s">
         <v>841</v>
       </c>
     </row>
@@ -9486,656 +9513,664 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="58" style="24" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="58" style="21" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
         <v>842</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="83" t="s">
         <v>843</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="83" t="s">
         <v>453</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="66" t="s">
         <v>846</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="66" t="s">
         <v>847</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="66" t="s">
         <v>852</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
     </row>
     <row r="10" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
     </row>
     <row r="11" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="66" t="s">
         <v>858</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="66" t="s">
         <v>859</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
     </row>
     <row r="13" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
     </row>
     <row r="15" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="18" t="s">
         <v>864</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
     </row>
     <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="66" t="s">
         <v>865</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
     </row>
     <row r="18" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="18" t="s">
         <v>870</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="18" t="s">
         <v>872</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
     </row>
     <row r="24" spans="1:6" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="21" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="21" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
     </row>
     <row r="29" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
     </row>
     <row r="30" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="84"/>
-      <c r="B30" s="89" t="s">
+      <c r="A30" s="59"/>
+      <c r="B30" s="66" t="s">
         <v>879</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="84"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
     </row>
     <row r="32" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
     </row>
     <row r="33" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="21" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
     </row>
     <row r="34" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="18" t="s">
         <v>884</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
     </row>
     <row r="35" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="67" t="s">
         <v>885</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="66" t="s">
         <v>886</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
     </row>
     <row r="36" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="18" t="s">
         <v>888</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
     </row>
     <row r="38" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="18" t="s">
         <v>890</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
     </row>
     <row r="39" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
     </row>
     <row r="40" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="66" t="s">
         <v>892</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
     </row>
     <row r="41" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="21" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="18" t="s">
         <v>894</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
     </row>
     <row r="42" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="19" t="s">
         <v>895</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="18" t="s">
         <v>896</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="67" t="s">
         <v>897</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="66" t="s">
         <v>898</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
     </row>
     <row r="44" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="21" t="s">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
     </row>
     <row r="45" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="21" t="s">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
     </row>
     <row r="46" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="84"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="21" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="18" t="s">
         <v>902</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
     </row>
     <row r="47" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="84"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="21" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="89" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="66" t="s">
         <v>904</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
     </row>
     <row r="49" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="84"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="21" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
     </row>
     <row r="50" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="84"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="21" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
     </row>
     <row r="51" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="84"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="21" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="89" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="66" t="s">
         <v>908</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="21" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
     </row>
     <row r="54" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
     </row>
     <row r="55" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="21" t="s">
+      <c r="A55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="84"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="21" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="84"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="21" t="s">
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
     </row>
     <row r="59" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="21" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
     </row>
     <row r="60" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="21" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A43:A60"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B60"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B3:B6"/>
@@ -10144,13 +10179,6 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B29"/>
     <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A43:A60"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10160,480 +10188,486 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:D54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="76" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="76" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="77" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="77" customWidth="1"/>
+    <col min="1" max="1" width="21" style="53" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="110" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="110" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="102" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="103"/>
+      <c r="E1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="83" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="72" t="s">
         <v>917</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="72" t="s">
         <v>918</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="72" t="s">
         <v>919</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="72" t="s">
         <v>920</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
     </row>
     <row r="4" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>921</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>922</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
     </row>
     <row r="9" spans="1:6" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>924</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
     </row>
     <row r="10" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
     </row>
     <row r="11" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="85"/>
     </row>
     <row r="12" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="104" t="s">
         <v>923</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="14" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="75" t="s">
         <v>928</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="76" t="s">
         <v>917</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="76" t="s">
         <v>918</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="86" t="s">
         <v>929</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="87" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
     </row>
     <row r="19" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="85"/>
     </row>
     <row r="21" spans="1:4" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="28" t="s">
         <v>933</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="25" t="s">
         <v>934</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="101"/>
     </row>
     <row r="23" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="25" t="s">
         <v>936</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="44"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
     </row>
     <row r="24" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="78" t="s">
         <v>937</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="78" t="s">
         <v>918</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="90" t="s">
         <v>919</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="90" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
     </row>
     <row r="28" spans="1:4" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="29" t="s">
         <v>938</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="30" t="s">
         <v>939</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
     </row>
     <row r="29" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="31" t="s">
         <v>940</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="32" t="s">
         <v>941</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
     </row>
     <row r="31" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="79" t="s">
         <v>942</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="33" t="s">
         <v>917</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="92" t="s">
         <v>929</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="93" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="35" t="s">
         <v>945</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="36" t="s">
         <v>946</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
     </row>
     <row r="36" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
     </row>
     <row r="37" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="39" t="s">
         <v>947</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="36" t="s">
         <v>948</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
     </row>
     <row r="38" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="68" t="s">
         <v>917</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="70" t="s">
         <v>943</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="97" t="s">
         <v>929</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="98" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
     </row>
     <row r="44" spans="1:4" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="42" t="s">
         <v>952</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="43" t="s">
         <v>953</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
     </row>
     <row r="45" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
     </row>
     <row r="46" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="85"/>
     </row>
     <row r="47" spans="1:4" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="28"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="85"/>
     </row>
     <row r="48" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="85"/>
     </row>
     <row r="49" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="28"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="85"/>
     </row>
     <row r="50" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="85"/>
     </row>
     <row r="51" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="85"/>
     </row>
     <row r="52" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="38" t="s">
         <v>923</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="85"/>
     </row>
     <row r="53" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="46" t="s">
         <v>923</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="46" t="s">
         <v>923</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="101"/>
     </row>
     <row r="54" spans="1:4" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="47" t="s">
         <v>954</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="24" t="s">
         <v>955</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="71"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
@@ -10645,11 +10679,6 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
